--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1662958.50003148</v>
+        <v>1745481.367545824</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5983698.778981606</v>
+        <v>6324585.686350824</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.26597368195073</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>361.0423675600758</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.50790173480761</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.476914564935774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>421.5249099183989</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>324.7616665196396</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,13 +1062,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>166.8316574011724</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.954633941095523</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>332.4291174559667</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1375,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>151.0619293206437</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1534,13 +1536,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>7.26460296736268</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.0506148329444</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="15">
@@ -1768,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>39.86022305741663</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.0567773522578</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,10 +2541,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>238.6599430699293</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>46.16917954999322</v>
       </c>
       <c r="H28" t="n">
-        <v>28.46824604904392</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2843,7 +2845,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2959,10 +2961,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>122.6391170798906</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -3004,10 +3006,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3509,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932886</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3667,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>58.6618829326302</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791316482</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556929</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>333.1003530688839</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U43" t="n">
-        <v>136.0564930767003</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3980,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773005</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3144747352879402</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>484.0636759001416</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4361,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>613.9632093877782</v>
+        <v>1318.649370085396</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.6770856874316</v>
+        <v>910.3632463850494</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4409,19 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
         <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.8041211489747</v>
+        <v>833.4344202766665</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>660.8727087598915</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>660.8727087598915</v>
       </c>
       <c r="E4" t="n">
         <v>604.8041211489747</v>
@@ -4486,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X4" t="n">
-        <v>614.3767621236573</v>
+        <v>1025.253038995654</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.8041211489747</v>
+        <v>1025.253038995654</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>2075.67376259375</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>1637.531289777173</v>
       </c>
       <c r="D5" t="n">
-        <v>790.269974958836</v>
+        <v>1201.621504951618</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>767.846760109913</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2520.80427892529</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2505.702219545005</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2501.456499885062</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>972.3985859291678</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>972.3985859291678</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="N6" t="n">
-        <v>453.9965675465116</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6525504900546</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>605.0908389732796</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>439.2128461748023</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.544589050298</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609521</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.509060631519</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1250.463975842534</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1005.072221175946</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>777.6525504900546</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.974446717864</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1633.09229092537</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1194.949818108793</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.949818108793</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M11" t="n">
-        <v>1345.742592622717</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.742592622717</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3800.474012941002</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3654.292853186454</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3291.67590312028</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2886.820448531313</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2467.677985110624</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2059.391861410277</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>76.13761321162086</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L12" t="n">
-        <v>76.13761321162086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>261.7424914848164</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>261.7424914848164</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>261.7424914848164</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.2136293346052</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>591.6519178178302</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>425.7739250193529</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.258586696244</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.82558594935</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1700.87007781978</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.843673406072</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.451918739484</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.0322480535924</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1673.094770252242</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1234.952297435665</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>799.0425126101095</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>365.2677677684046</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3101.389534015723</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2696.534079426757</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2277.391616006068</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1869.105492305721</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.8728193312368</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>772.3111078144617</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>606.4331150159844</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E16" t="n">
-        <v>436.6751112667217</v>
+        <v>448.0171411277256</v>
       </c>
       <c r="F16" t="n">
-        <v>259.9680572284778</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>94.37678225430551</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.797223114421</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.917776692876</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2168.484775945981</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1881.529267816412</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.502863402703</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1364.111108736116</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.691438050224</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2460.632577573633</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>137.965694649704</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2460.632577573633</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E23" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,49 +5992,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O23" t="n">
+        <v>4284.732138705585</v>
+      </c>
+      <c r="P23" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="P23" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E28" t="n">
-        <v>473.3149733731391</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F28" t="n">
-        <v>296.6079193348953</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G28" t="n">
-        <v>131.016644360723</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,31 +6466,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
         <v>4809.322912595856</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>790.3368563937634</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>624.4588635952861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>454.7008598460233</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>454.7008598460233</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
         <v>330.8229638057298</v>
@@ -6652,19 +6654,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>211.240503094076</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>211.240503094076</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1286.300469346935</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2443.348304557486</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6917,19 +6919,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6946,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,10 +7180,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>467.0087167592544</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>301.4174417850821</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>161.5152674754566</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1811.83204528625</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1373.689572469674</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>76.13761321162086</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>511.3923006645387</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3470.41565748116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3065.560202892194</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2646.417739471505</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2238.131615771158</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.6336502885522</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717771</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732998</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>418.435942224037</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162086</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360019</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1785.68009831996</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1347.537625503383</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>911.6278406778274</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>477.8530958361226</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>477.8530958361226</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.45526445938646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.45526445938646</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>925.0107940069742</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1867.213757500782</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>1867.213757500782</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.213757500782</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2809.41672099459</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3637.726595827986</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3039.408255925903</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2620.265792505214</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2211.979668804867</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.6336502885522</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>754.0719387717771</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>588.1939459732998</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162086</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2674.558054071736</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2428.678607650191</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U46" t="n">
-        <v>2150.245606903296</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V46" t="n">
-        <v>1863.290098773727</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1591.263694360019</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.871939693431</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.452269007539</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8055,22 +8057,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8134,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>577.115354760627</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,16 +8382,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>204.0749767191091</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>773.8072875145303</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="M12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,19 +8932,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>453.4964435270872</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>453.4964435270872</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,13 +10594,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10899,19 +10901,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>817.4976473511605</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,13 +11141,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>417.7964579216519</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23261,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>105.5681503355096</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>227.9859599471143</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.0797604404447</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>52.42554389793628</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>4.277894049992312</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>117.7661826744374</v>
       </c>
       <c r="H28" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>41.29624514454001</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>29.11146680044121</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>25.89042749662781</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,13 +25836,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U43" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0981467438434574</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>512053.9310715657</v>
+        <v>526849.9738987201</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>512053.9310715657</v>
+        <v>529514.0339523</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448798.3479551335</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448798.3479551335</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>555072.4983781535</v>
+        <v>555072.4983781537</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448798.3479551335</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448798.3479551335</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469128.9049041075</v>
+      </c>
+      <c r="C2" t="n">
         <v>469128.9049041074</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>469128.9049041075</v>
       </c>
-      <c r="D2" t="n">
-        <v>469128.9049041074</v>
-      </c>
       <c r="E2" t="n">
-        <v>372737.2772060219</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
-        <v>372737.2772060218</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
         <v>461000.3861201834</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="K2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="L2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="N2" t="n">
         <v>461000.3861201834</v>
       </c>
       <c r="O2" t="n">
-        <v>372737.2772060219</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="P2" t="n">
-        <v>372737.2772060219</v>
+        <v>461000.3861201834</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501605</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998289</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877242</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>9392.301726622407</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>76713.02278410411</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="F4" t="n">
-        <v>76713.02278410409</v>
+        <v>94878.44464875282</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="I4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="J4" t="n">
         <v>94878.44464875288</v>
       </c>
-      <c r="J4" t="n">
-        <v>94878.44464875289</v>
-      </c>
       <c r="K4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875288</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="O4" t="n">
-        <v>76713.02278410409</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="P4" t="n">
-        <v>76713.02278410411</v>
+        <v>94878.44464875288</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55419.6966699572</v>
+        <v>55419.69666995732</v>
       </c>
       <c r="C6" t="n">
-        <v>197610.9973296672</v>
+        <v>150866.2904093822</v>
       </c>
       <c r="D6" t="n">
-        <v>197610.9973296672</v>
+        <v>209499.2495259239</v>
       </c>
       <c r="E6" t="n">
-        <v>80682.37345898202</v>
+        <v>106048.5936445882</v>
       </c>
       <c r="F6" t="n">
-        <v>238159.6683810859</v>
+        <v>288403.702865638</v>
       </c>
       <c r="G6" t="n">
-        <v>198903.8942592688</v>
+        <v>288403.702865638</v>
       </c>
       <c r="H6" t="n">
-        <v>288403.7028656378</v>
+        <v>288403.7028656381</v>
       </c>
       <c r="I6" t="n">
         <v>288403.702865638</v>
       </c>
       <c r="J6" t="n">
-        <v>177389.2375206477</v>
+        <v>177389.2375206476</v>
       </c>
       <c r="K6" t="n">
+        <v>235357.8482268656</v>
+      </c>
+      <c r="L6" t="n">
+        <v>279011.4011390156</v>
+      </c>
+      <c r="M6" t="n">
+        <v>136203.5319276503</v>
+      </c>
+      <c r="N6" t="n">
+        <v>288403.7028656381</v>
+      </c>
+      <c r="O6" t="n">
         <v>288403.702865638</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>288403.702865638</v>
-      </c>
-      <c r="M6" t="n">
-        <v>156967.4557082183</v>
-      </c>
-      <c r="N6" t="n">
-        <v>288403.702865638</v>
-      </c>
-      <c r="O6" t="n">
-        <v>238159.668381086</v>
-      </c>
-      <c r="P6" t="n">
-        <v>238159.668381086</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939376</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939376</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939376</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.7706010981079</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>72.71868052833509</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>112.5525219769625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>215.668559414097</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.5116648616597672</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>104.6753308736481</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8170133382533</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>260.3515064284759</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>369.8422500230728</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>101.3319306324442</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="11">
@@ -29563,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34775,22 +34777,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>577.115354760627</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35102,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>204.0749767191091</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>773.8072875145303</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="M12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>453.4964435270872</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>453.4964435270872</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36358,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36606,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37081,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,13 +37314,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37546,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,19 +37621,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>817.4976473511605</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>417.7964579216519</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1745481.367545824</v>
+        <v>1744956.185176791</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916861</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>361.0423675600758</v>
+        <v>203.7303779702293</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>162.7864525072775</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>55.50790173480761</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>421.5249099183989</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>132.6184610230605</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>114.3486586083507</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>166.8316574011724</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1141,10 +1141,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.59474737021493</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>153.0645953381182</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.01098805494614</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1663,7 +1663,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>39.86022305741663</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.34780583513513</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.97358346682158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2259,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>168.7843377880174</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2371,7 +2371,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2541,10 +2541,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>238.6599430699293</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="26">
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>46.16917954999322</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3006,10 +3006,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800581</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>157.8824880649885</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3505,13 +3505,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884104</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932886</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701016264</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>58.6618829326302</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791316482</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556929</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773005</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4155,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>325.1626763144379</v>
       </c>
       <c r="C2" t="n">
         <v>119.3744157384487</v>
@@ -4330,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>770.8100258395735</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.649370085396</v>
+        <v>755.7079664592883</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850494</v>
+        <v>751.4622467993457</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.4344202766665</v>
+        <v>509.4818394589739</v>
       </c>
       <c r="C4" t="n">
-        <v>660.8727087598915</v>
+        <v>509.4818394589739</v>
       </c>
       <c r="D4" t="n">
-        <v>660.8727087598915</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>89.90148899448771</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>89.90148899448771</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>89.90148899448771</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="W4" t="n">
-        <v>1270.644793662241</v>
+        <v>1146.724024919814</v>
       </c>
       <c r="X4" t="n">
-        <v>1025.253038995654</v>
+        <v>901.3322702532269</v>
       </c>
       <c r="Y4" t="n">
-        <v>1025.253038995654</v>
+        <v>673.9125995673351</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.67376259375</v>
+        <v>574.4223959157544</v>
       </c>
       <c r="C5" t="n">
-        <v>1637.531289777173</v>
+        <v>136.2799230991776</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.621504951618</v>
+        <v>104.4105423140262</v>
       </c>
       <c r="E5" t="n">
-        <v>767.846760109913</v>
+        <v>74.67620151272541</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233705</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="L5" t="n">
-        <v>1733.888642131952</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="M5" t="n">
-        <v>1805.966478762201</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="N5" t="n">
-        <v>1805.966478762201</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="O5" t="n">
-        <v>1805.966478762201</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762201</v>
+        <v>1805.966478762209</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720796</v>
+        <v>2352.465264720804</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473853</v>
+        <v>2437.967455657697</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473853</v>
+        <v>2217.900228530736</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473853</v>
+        <v>1958.677925847753</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473853</v>
+        <v>1958.677925847753</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.80427892529</v>
+        <v>1553.822471258786</v>
       </c>
       <c r="X5" t="n">
-        <v>2505.702219545005</v>
+        <v>1134.680007838097</v>
       </c>
       <c r="Y5" t="n">
-        <v>2501.456499885062</v>
+        <v>1000.721966400662</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326458</v>
+        <v>92.16803877326474</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993466</v>
+        <v>76.49605974993482</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>972.3985859291678</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>972.3985859291678</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>593.0357356940449</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>420.4740241772698</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>254.5960313787925</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>254.5960313787925</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>254.5960313787925</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>254.5960313787925</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285739</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609521</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473853</v>
+        <v>2500.201508179232</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473853</v>
+        <v>2340.960139477229</v>
       </c>
       <c r="T7" t="n">
-        <v>2521.619329473853</v>
+        <v>2095.080693055684</v>
       </c>
       <c r="U7" t="n">
-        <v>2353.102503816103</v>
+        <v>1816.647692308789</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1529.69218417922</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1257.665779765511</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1012.274025098924</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>784.8543544130321</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1515.838921374201</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>1077.696448557625</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>641.786663732069</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>208.0119188903641</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4807,10 +4807,10 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
         <v>1149.495958523325</v>
@@ -4819,37 +4819,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1942.138491859109</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5004,10 +5004,10 @@
         <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.107276723079</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D11" t="n">
         <v>1654.847790009657</v>
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5044,49 +5044,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N11" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.474012941002</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P11" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q11" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
         <v>143.9964924545671</v>
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K12" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>126.8499155856325</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G13" t="n">
         <v>102.2608402707796</v>
@@ -5199,7 +5199,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K13" t="n">
         <v>463.598980006605</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5287,40 +5287,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136696</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>617.7751448769883</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>448.0171411277256</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5478,10 +5478,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2460.632577573633</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5661,13 +5661,13 @@
         <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>303.5569696238763</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>137.965694649704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>137.965694649704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5752,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2460.632577573633</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5952,10 +5952,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y22" t="n">
-        <v>1209.575145798642</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
         <v>1221.073045167952</v>
@@ -5980,7 +5980,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5992,49 +5992,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698832</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135279</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705585</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1062.363260807472</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>889.8015492906967</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>723.9235564922194</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>554.1655527429566</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>377.4584987047128</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1481.601550212351</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1254.181879526459</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,28 +6539,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6946,10 +6946,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993933</v>
@@ -7016,25 +7016,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2132.904553083697</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.949044954127</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7165,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>388.1086717343196</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7232,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7253,25 +7253,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>982.1554751127505</v>
+        <v>970.996046390399</v>
       </c>
       <c r="C40" t="n">
-        <v>809.5937635959755</v>
+        <v>798.4343348736239</v>
       </c>
       <c r="D40" t="n">
-        <v>643.7157707974982</v>
+        <v>632.5563420751466</v>
       </c>
       <c r="E40" t="n">
-        <v>643.7157707974982</v>
+        <v>462.7983383258839</v>
       </c>
       <c r="F40" t="n">
-        <v>467.0087167592544</v>
+        <v>286.0912842876401</v>
       </c>
       <c r="G40" t="n">
-        <v>301.4174417850821</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>161.5152674754566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7338,46 +7338,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745701</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,10 +7417,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7441,22 +7441,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7654,10 +7654,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7678,22 +7678,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.52305090189834</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684633</v>
+        <v>72.80589558611405</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,13 +8297,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.115354760627</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684632</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191091</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8692,28 +8692,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>773.8072875145303</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8935,16 +8935,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>453.4964435270872</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>161.1527324371088</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>453.4964435270872</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>168.8387779969848</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9655,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10664,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>161.1527324371088</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965051</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10901,19 +10901,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.0797604404447</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>197.1718905122113</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>52.42554389793628</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>56.36113619101545</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.277894049992312</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>117.7661826744374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>120.446375214268</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>29.11146680044121</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>526849.9738987201</v>
+        <v>526849.9738987202</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>555072.4983781535</v>
+        <v>555072.4983781537</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>555072.4983781537</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469128.9049041076</v>
+      </c>
+      <c r="C2" t="n">
         <v>469128.9049041075</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>469128.9049041074</v>
       </c>
-      <c r="D2" t="n">
-        <v>469128.9049041075</v>
-      </c>
       <c r="E2" t="n">
+        <v>461000.3861201832</v>
+      </c>
+      <c r="F2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="G2" t="n">
         <v>461000.3861201833</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>461000.3861201833</v>
-      </c>
-      <c r="G2" t="n">
-        <v>461000.3861201834</v>
-      </c>
-      <c r="H2" t="n">
-        <v>461000.3861201835</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="K2" t="n">
-        <v>461000.3861201835</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="L2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="P2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501605</v>
+        <v>66587.76789501666</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998289</v>
+        <v>11527.59554998229</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210496</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877242</v>
+        <v>53045.85463877291</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622407</v>
+        <v>9392.301726621869</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.772124170060751e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>179718.6327917067</v>
+        <v>179718.6327917064</v>
       </c>
       <c r="D4" t="n">
         <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875282</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
+        <v>94878.44464875292</v>
+      </c>
+      <c r="O4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="P4" t="n">
         <v>94878.44464875286</v>
-      </c>
-      <c r="O4" t="n">
-        <v>94878.44464875285</v>
-      </c>
-      <c r="P4" t="n">
-        <v>94878.44464875288</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800256</v>
+        <v>71956.21380800268</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26499,13 +26499,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55419.69666995732</v>
+        <v>55419.69666995743</v>
       </c>
       <c r="C6" t="n">
-        <v>150866.2904093822</v>
+        <v>150866.2904093818</v>
       </c>
       <c r="D6" t="n">
-        <v>209499.2495259239</v>
+        <v>209499.2495259244</v>
       </c>
       <c r="E6" t="n">
-        <v>106048.5936445882</v>
+        <v>106025.3693052057</v>
       </c>
       <c r="F6" t="n">
-        <v>288403.702865638</v>
+        <v>288380.4785262552</v>
       </c>
       <c r="G6" t="n">
-        <v>288403.702865638</v>
+        <v>288380.4785262553</v>
       </c>
       <c r="H6" t="n">
-        <v>288403.7028656381</v>
+        <v>288380.4785262552</v>
       </c>
       <c r="I6" t="n">
-        <v>288403.702865638</v>
+        <v>288380.4785262553</v>
       </c>
       <c r="J6" t="n">
-        <v>177389.2375206476</v>
+        <v>177366.013181265</v>
       </c>
       <c r="K6" t="n">
-        <v>235357.8482268656</v>
+        <v>235334.6238874824</v>
       </c>
       <c r="L6" t="n">
-        <v>279011.4011390156</v>
+        <v>278988.1767996334</v>
       </c>
       <c r="M6" t="n">
-        <v>136203.5319276503</v>
+        <v>136180.3075882676</v>
       </c>
       <c r="N6" t="n">
-        <v>288403.7028656381</v>
+        <v>288380.4785262553</v>
       </c>
       <c r="O6" t="n">
-        <v>288403.702865638</v>
+        <v>288380.4785262553</v>
       </c>
       <c r="P6" t="n">
-        <v>288403.702865638</v>
+        <v>288380.4785262553</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.465155212575939e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684632</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.465155212575939e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27014,16 +27014,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483608</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939376</v>
+        <v>37.11037423939186</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483608</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939376</v>
+        <v>37.11037423939163</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,16 +27260,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483608</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939376</v>
+        <v>37.11037423939186</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>72.71868052833509</v>
+        <v>230.0306701181816</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>27.11398002451972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>112.5525219769625</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5116648616597672</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>271.5848014402826</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.15449395817852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.8170133382533</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>270.5241599567661</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27915,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>4.047301288288696e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34777,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.52305090189834</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684633</v>
+        <v>72.80589558611405</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,13 +35017,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.115354760627</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684632</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191091</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35412,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>773.8072875145303</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35655,16 +35655,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>453.4964435270872</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>161.1527324371088</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>453.4964435270872</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36360,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>168.8387779969848</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36375,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37314,13 +37314,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918382</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37384,10 +37384,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>161.1527324371088</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>288.7351832965051</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37621,19 +37621,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37706,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080456</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
